--- a/results/I3_N5_M2_T45_C200_DepLowerLeft_s1_P3_res.xlsx
+++ b/results/I3_N5_M2_T45_C200_DepLowerLeft_s1_P3_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>398.5208472839794</v>
+        <v>841.4728792860783</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0130000114440918</v>
+        <v>0.006000041961669922</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>35.86084728397254</v>
+        <v>25.81760345874363</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.966330293861065</v>
+        <v>7.549255196917892</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.966330293861065</v>
+        <v>7.20453102425245</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>362.6600000000068</v>
+        <v>576</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,10 +595,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -606,10 +606,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -617,12 +617,23 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -667,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -678,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -689,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -700,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -711,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -722,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -733,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -813,7 +824,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -824,7 +835,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -835,7 +846,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -896,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>40.31430901573738</v>
       </c>
     </row>
     <row r="4">
@@ -904,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>31.60181147454999</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
@@ -912,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>30</v>
+        <v>31.60181147454999</v>
       </c>
     </row>
     <row r="6">
@@ -920,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>33.75054662682655</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
@@ -928,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>38.76616769126618</v>
+        <v>17.48909622152298</v>
       </c>
     </row>
     <row r="8">
@@ -936,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>43.72408055859251</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -944,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>36.46828465688021</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -958,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -990,10 +1001,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1004,10 +1015,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1018,13 +1029,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -1032,15 +1043,57 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>7</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1143,7 +1196,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>126.9700000000003</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8">
@@ -1154,7 +1207,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>127.65</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9">
@@ -1165,7 +1218,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>136.8550000000003</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10">
@@ -1176,7 +1229,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>127.2550000000003</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11">
@@ -1187,7 +1240,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>123.4800000000003</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12">
@@ -1198,7 +1251,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>132.1149999999997</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13">
@@ -1209,7 +1262,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>133.7650000000011</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14">
@@ -1220,7 +1273,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>121.5600000000006</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15">
@@ -1231,7 +1284,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>134.4950000000008</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16">
@@ -1242,7 +1295,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>132.01</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17">
@@ -1253,7 +1306,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>85.06999999999913</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18">
@@ -1264,7 +1317,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>88.53999999999913</v>
+        <v>201</v>
       </c>
     </row>
     <row r="19">
@@ -1275,7 +1328,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>74.90999999999913</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20">
@@ -1286,7 +1339,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>82.96999999999912</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21">
@@ -1297,7 +1350,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>82.74499999999912</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22">
@@ -1308,7 +1361,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>202.86</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23">
@@ -1319,7 +1372,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>203.34</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24">
@@ -1330,7 +1383,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>217.055</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25">
@@ -1341,7 +1394,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>207.51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26">
@@ -1352,7 +1405,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>199.0450000000008</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27">
@@ -1363,7 +1416,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>233.8400000000001</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28">
@@ -1374,7 +1427,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>229.8850000000015</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29">
@@ -1385,7 +1438,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>219.825000000001</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30">
@@ -1396,7 +1449,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>231.4400000000011</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31">
@@ -1407,7 +1460,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>235.5750000000003</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32">
@@ -1418,7 +1471,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>233.8400000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1429,7 +1482,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>229.8850000000015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1440,7 +1493,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>219.825000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1451,7 +1504,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>231.4400000000011</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1462,7 +1515,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>235.5750000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1473,7 +1526,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>202.86</v>
+        <v>253</v>
       </c>
     </row>
     <row r="38">
@@ -1484,7 +1537,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>203.34</v>
+        <v>261</v>
       </c>
     </row>
     <row r="39">
@@ -1495,7 +1548,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>217.055</v>
+        <v>264</v>
       </c>
     </row>
     <row r="40">
@@ -1506,7 +1559,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>207.51</v>
+        <v>261</v>
       </c>
     </row>
     <row r="41">
@@ -1517,7 +1570,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>199.0450000000008</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -1564,7 +1617,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>33.84000000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1575,7 +1628,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>29.88500000000149</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1586,7 +1639,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>19.82500000000098</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1597,7 +1650,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>31.44000000000112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1608,7 +1661,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>35.57500000000034</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1619,7 +1672,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>2.859999999999928</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8">
@@ -1630,7 +1683,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>3.340000000000003</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9">
@@ -1641,7 +1694,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>17.05499999999972</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10">
@@ -1652,7 +1705,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>7.509999999999792</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11">
@@ -1663,7 +1716,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1875,7 +1928,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -1886,7 +1939,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -1897,7 +1950,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -1908,7 +1961,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -1919,7 +1972,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -1930,7 +1983,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23">
@@ -1941,7 +1994,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24">
@@ -1952,7 +2005,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
@@ -1963,7 +2016,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26">
@@ -1974,7 +2027,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1988,7 +2041,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2015,7 +2068,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2026,7 +2079,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2037,7 +2090,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2048,7 +2101,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2059,10 +2112,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -2070,7 +2123,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7" t="n">
         <v>2</v>
@@ -2081,34 +2134,12 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B8" t="n">
         <v>3</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>5</v>
-      </c>
-      <c r="B9" t="n">
-        <v>4</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>5</v>
-      </c>
-      <c r="B10" t="n">
-        <v>5</v>
-      </c>
-      <c r="C10" t="n">
         <v>1</v>
       </c>
     </row>
